--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_16_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_16_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55759.75341576635</v>
+        <v>11096190.92973749</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55759.75341576635</v>
+        <v>11096190.92973749</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4818.695246261495</v>
+        <v>695453.7707778065</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4818.695246261495</v>
+        <v>695453.7707778065</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342581749.922073</v>
+        <v>54955338.19787007</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11275.1723709421</v>
+        <v>1247609.566183942</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21610.54527208343</v>
+        <v>2348960.584291395</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31945.91817322475</v>
+        <v>3450311.60239885</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42757.8347808222</v>
+        <v>4565056.359459664</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53417.62805621466</v>
+        <v>5667011.269750684</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64077.42133160712</v>
+        <v>6768966.180041705</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74737.21460699957</v>
+        <v>7870921.090332721</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85397.00788239202</v>
+        <v>8972876.000623738</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96074.34356717172</v>
+        <v>10046214.88540298</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>106619.3323354099</v>
+        <v>11148004.06988399</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>117164.321103648</v>
+        <v>12249793.25436501</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>127274.9474867961</v>
+        <v>13330022.63974907</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>137483.7718497422</v>
+        <v>14429793.42311292</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>148264.4026173501</v>
+        <v>15444107.20173661</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>159307.7789530747</v>
+        <v>16425239.33822514</v>
       </c>
     </row>
   </sheetData>
